--- a/results/mp/deberta/corona/confidence/126/stop-words-desired-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-desired-0.5/avg_0.004_scores.xlsx
@@ -97,21 +97,21 @@
     <t>better</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
     <t>join</t>
   </si>
   <si>
@@ -124,16 +124,16 @@
     <t>relief</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>important</t>
   </si>
   <si>
     <t>hope</t>
@@ -1197,13 +1197,13 @@
         <v>27</v>
       </c>
       <c r="K17">
-        <v>0.75</v>
+        <v>0.7444444444444445</v>
       </c>
       <c r="L17">
-        <v>171</v>
+        <v>67</v>
       </c>
       <c r="M17">
-        <v>182</v>
+        <v>71</v>
       </c>
       <c r="N17">
         <v>0.9399999999999999</v>
@@ -1215,7 +1215,7 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>57</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1223,25 +1223,25 @@
         <v>28</v>
       </c>
       <c r="K18">
-        <v>0.7444444444444445</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="L18">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="M18">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="N18">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="O18">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P18" t="b">
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1249,25 +1249,25 @@
         <v>29</v>
       </c>
       <c r="K19">
-        <v>0.7428571428571429</v>
+        <v>0.74</v>
       </c>
       <c r="L19">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="M19">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="N19">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="O19">
-        <v>0.02000000000000002</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P19" t="b">
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1275,25 +1275,25 @@
         <v>30</v>
       </c>
       <c r="K20">
-        <v>0.74</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="L20">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="M20">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="N20">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="O20">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P20" t="b">
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1301,25 +1301,25 @@
         <v>31</v>
       </c>
       <c r="K21">
-        <v>0.7391304347826086</v>
+        <v>0.7154811715481172</v>
       </c>
       <c r="L21">
-        <v>34</v>
+        <v>171</v>
       </c>
       <c r="M21">
-        <v>35</v>
+        <v>171</v>
       </c>
       <c r="N21">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>12</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1431,25 +1431,25 @@
         <v>36</v>
       </c>
       <c r="K26">
-        <v>0.6288343558282209</v>
+        <v>0.6188811188811189</v>
       </c>
       <c r="L26">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="M26">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="N26">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="O26">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P26" t="b">
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1457,25 +1457,25 @@
         <v>37</v>
       </c>
       <c r="K27">
-        <v>0.6188811188811189</v>
+        <v>0.6084656084656085</v>
       </c>
       <c r="L27">
-        <v>177</v>
+        <v>230</v>
       </c>
       <c r="M27">
-        <v>186</v>
+        <v>235</v>
       </c>
       <c r="N27">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="O27">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P27" t="b">
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>109</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1483,25 +1483,25 @@
         <v>38</v>
       </c>
       <c r="K28">
-        <v>0.6084656084656085</v>
+        <v>0.6046511627906976</v>
       </c>
       <c r="L28">
-        <v>230</v>
+        <v>26</v>
       </c>
       <c r="M28">
-        <v>235</v>
+        <v>28</v>
       </c>
       <c r="N28">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="O28">
-        <v>0.02000000000000002</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P28" t="b">
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>148</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1509,25 +1509,25 @@
         <v>39</v>
       </c>
       <c r="K29">
-        <v>0.6046511627906976</v>
+        <v>0.6029411764705882</v>
       </c>
       <c r="L29">
-        <v>26</v>
+        <v>205</v>
       </c>
       <c r="M29">
-        <v>28</v>
+        <v>205</v>
       </c>
       <c r="N29">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>17</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="10:17">
